--- a/行业/食品饮料/软饮料/软饮料.xlsx
+++ b/行业/食品饮料/软饮料/软饮料.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="128">
   <si>
     <t>定性问题</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>可口可乐</t>
+  </si>
+  <si>
+    <t>达能</t>
   </si>
   <si>
     <t>红牛</t>
@@ -2013,14 +2016,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC214"/>
+  <dimension ref="A1:AC224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C15"/>
+      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4967,12 +4970,12 @@
       <c r="AC88" s="73"/>
     </row>
     <row r="89" spans="1:29">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="54" t="s">
         <v>45</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="6"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
       <c r="G89" s="28"/>
@@ -5000,10 +5003,10 @@
       <c r="AC89" s="73"/>
     </row>
     <row r="90" spans="1:29">
-      <c r="A90" s="57"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
       <c r="G90" s="28"/>
@@ -5015,15 +5018,15 @@
       <c r="M90" s="28"/>
       <c r="N90" s="28"/>
       <c r="O90" s="28"/>
-      <c r="P90" s="12"/>
+      <c r="P90" s="36"/>
       <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
+      <c r="R90" s="36"/>
       <c r="S90" s="36"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
       <c r="V90" s="36"/>
       <c r="W90" s="36"/>
-      <c r="X90" s="67"/>
+      <c r="X90" s="76"/>
       <c r="Y90" s="67"/>
       <c r="Z90" s="42"/>
       <c r="AA90" s="73"/>
@@ -5031,10 +5034,10 @@
       <c r="AC90" s="73"/>
     </row>
     <row r="91" spans="1:29">
-      <c r="A91" s="57"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
       <c r="G91" s="28"/>
@@ -5046,15 +5049,15 @@
       <c r="M91" s="28"/>
       <c r="N91" s="28"/>
       <c r="O91" s="28"/>
-      <c r="P91" s="12"/>
+      <c r="P91" s="36"/>
       <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
+      <c r="R91" s="36"/>
       <c r="S91" s="36"/>
       <c r="T91" s="36"/>
       <c r="U91" s="36"/>
       <c r="V91" s="36"/>
       <c r="W91" s="36"/>
-      <c r="X91" s="67"/>
+      <c r="X91" s="76"/>
       <c r="Y91" s="67"/>
       <c r="Z91" s="42"/>
       <c r="AA91" s="73"/>
@@ -5062,10 +5065,10 @@
       <c r="AC91" s="73"/>
     </row>
     <row r="92" spans="1:29">
-      <c r="A92" s="57"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="55"/>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
       <c r="G92" s="28"/>
@@ -5077,15 +5080,15 @@
       <c r="M92" s="28"/>
       <c r="N92" s="28"/>
       <c r="O92" s="28"/>
-      <c r="P92" s="12"/>
+      <c r="P92" s="36"/>
       <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
+      <c r="R92" s="36"/>
       <c r="S92" s="36"/>
       <c r="T92" s="36"/>
       <c r="U92" s="36"/>
       <c r="V92" s="36"/>
       <c r="W92" s="36"/>
-      <c r="X92" s="67"/>
+      <c r="X92" s="76"/>
       <c r="Y92" s="67"/>
       <c r="Z92" s="42"/>
       <c r="AA92" s="73"/>
@@ -5093,10 +5096,10 @@
       <c r="AC92" s="73"/>
     </row>
     <row r="93" spans="1:29">
-      <c r="A93" s="57"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
@@ -5108,15 +5111,15 @@
       <c r="M93" s="28"/>
       <c r="N93" s="28"/>
       <c r="O93" s="28"/>
-      <c r="P93" s="12"/>
+      <c r="P93" s="36"/>
       <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
+      <c r="R93" s="36"/>
       <c r="S93" s="36"/>
       <c r="T93" s="36"/>
       <c r="U93" s="36"/>
       <c r="V93" s="36"/>
       <c r="W93" s="36"/>
-      <c r="X93" s="67"/>
+      <c r="X93" s="76"/>
       <c r="Y93" s="67"/>
       <c r="Z93" s="42"/>
       <c r="AA93" s="73"/>
@@ -5124,10 +5127,10 @@
       <c r="AC93" s="73"/>
     </row>
     <row r="94" spans="1:29">
-      <c r="A94" s="57"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
       <c r="G94" s="28"/>
@@ -5139,15 +5142,15 @@
       <c r="M94" s="28"/>
       <c r="N94" s="28"/>
       <c r="O94" s="28"/>
-      <c r="P94" s="12"/>
+      <c r="P94" s="36"/>
       <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
+      <c r="R94" s="36"/>
       <c r="S94" s="36"/>
       <c r="T94" s="36"/>
       <c r="U94" s="36"/>
       <c r="V94" s="36"/>
       <c r="W94" s="36"/>
-      <c r="X94" s="67"/>
+      <c r="X94" s="76"/>
       <c r="Y94" s="67"/>
       <c r="Z94" s="42"/>
       <c r="AA94" s="73"/>
@@ -5155,10 +5158,10 @@
       <c r="AC94" s="73"/>
     </row>
     <row r="95" spans="1:29">
-      <c r="A95" s="57"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
@@ -5170,15 +5173,15 @@
       <c r="M95" s="28"/>
       <c r="N95" s="28"/>
       <c r="O95" s="28"/>
-      <c r="P95" s="12"/>
+      <c r="P95" s="36"/>
       <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="75"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
       <c r="T95" s="36"/>
       <c r="U95" s="36"/>
-      <c r="V95" s="75"/>
+      <c r="V95" s="36"/>
       <c r="W95" s="36"/>
-      <c r="X95" s="67"/>
+      <c r="X95" s="76"/>
       <c r="Y95" s="67"/>
       <c r="Z95" s="42"/>
       <c r="AA95" s="73"/>
@@ -5186,10 +5189,10 @@
       <c r="AC95" s="73"/>
     </row>
     <row r="96" spans="1:29">
-      <c r="A96" s="57"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
@@ -5201,15 +5204,15 @@
       <c r="M96" s="28"/>
       <c r="N96" s="28"/>
       <c r="O96" s="28"/>
-      <c r="P96" s="12"/>
+      <c r="P96" s="36"/>
       <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
+      <c r="R96" s="36"/>
       <c r="S96" s="36"/>
       <c r="T96" s="36"/>
       <c r="U96" s="36"/>
       <c r="V96" s="36"/>
       <c r="W96" s="36"/>
-      <c r="X96" s="67"/>
+      <c r="X96" s="76"/>
       <c r="Y96" s="67"/>
       <c r="Z96" s="42"/>
       <c r="AA96" s="73"/>
@@ -5217,30 +5220,30 @@
       <c r="AC96" s="73"/>
     </row>
     <row r="97" spans="1:29">
-      <c r="A97" s="57"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="55"/>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
       <c r="J97" s="28"/>
       <c r="K97" s="28"/>
       <c r="L97" s="28"/>
       <c r="M97" s="28"/>
       <c r="N97" s="28"/>
       <c r="O97" s="28"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="42"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="36"/>
       <c r="S97" s="36"/>
       <c r="T97" s="36"/>
       <c r="U97" s="36"/>
       <c r="V97" s="36"/>
       <c r="W97" s="36"/>
-      <c r="X97" s="67"/>
+      <c r="X97" s="76"/>
       <c r="Y97" s="67"/>
       <c r="Z97" s="42"/>
       <c r="AA97" s="73"/>
@@ -5248,30 +5251,30 @@
       <c r="AC97" s="73"/>
     </row>
     <row r="98" spans="1:29">
-      <c r="A98" s="57"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="55"/>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
       <c r="J98" s="28"/>
       <c r="K98" s="28"/>
       <c r="L98" s="28"/>
       <c r="M98" s="28"/>
       <c r="N98" s="28"/>
       <c r="O98" s="28"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="42"/>
-      <c r="S98" s="42"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
       <c r="T98" s="36"/>
       <c r="U98" s="36"/>
       <c r="V98" s="36"/>
       <c r="W98" s="36"/>
-      <c r="X98" s="67"/>
+      <c r="X98" s="76"/>
       <c r="Y98" s="67"/>
       <c r="Z98" s="42"/>
       <c r="AA98" s="73"/>
@@ -5279,11 +5282,11 @@
       <c r="AC98" s="73"/>
     </row>
     <row r="99" spans="1:29">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="57" t="s">
         <v>46</v>
       </c>
       <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="6"/>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
@@ -5296,15 +5299,15 @@
       <c r="M99" s="28"/>
       <c r="N99" s="28"/>
       <c r="O99" s="28"/>
-      <c r="P99" s="15"/>
+      <c r="P99" s="36"/>
       <c r="Q99" s="12"/>
-      <c r="R99" s="63"/>
-      <c r="S99" s="63"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
       <c r="T99" s="36"/>
       <c r="U99" s="36"/>
       <c r="V99" s="36"/>
-      <c r="W99" s="63"/>
-      <c r="X99" s="67"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="76"/>
       <c r="Y99" s="67"/>
       <c r="Z99" s="42"/>
       <c r="AA99" s="73"/>
@@ -5312,7 +5315,7 @@
       <c r="AC99" s="73"/>
     </row>
     <row r="100" spans="1:29">
-      <c r="A100" s="54"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -5327,14 +5330,14 @@
       <c r="M100" s="28"/>
       <c r="N100" s="28"/>
       <c r="O100" s="28"/>
-      <c r="P100" s="15"/>
+      <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
-      <c r="R100" s="63"/>
-      <c r="S100" s="63"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="36"/>
       <c r="T100" s="36"/>
       <c r="U100" s="36"/>
       <c r="V100" s="36"/>
-      <c r="W100" s="63"/>
+      <c r="W100" s="36"/>
       <c r="X100" s="67"/>
       <c r="Y100" s="67"/>
       <c r="Z100" s="42"/>
@@ -5343,7 +5346,7 @@
       <c r="AC100" s="73"/>
     </row>
     <row r="101" spans="1:29">
-      <c r="A101" s="54"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -5358,14 +5361,14 @@
       <c r="M101" s="28"/>
       <c r="N101" s="28"/>
       <c r="O101" s="28"/>
-      <c r="P101" s="15"/>
+      <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
-      <c r="R101" s="63"/>
-      <c r="S101" s="63"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="36"/>
       <c r="T101" s="36"/>
       <c r="U101" s="36"/>
       <c r="V101" s="36"/>
-      <c r="W101" s="63"/>
+      <c r="W101" s="36"/>
       <c r="X101" s="67"/>
       <c r="Y101" s="67"/>
       <c r="Z101" s="42"/>
@@ -5374,7 +5377,7 @@
       <c r="AC101" s="73"/>
     </row>
     <row r="102" spans="1:29">
-      <c r="A102" s="54"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -5389,14 +5392,14 @@
       <c r="M102" s="28"/>
       <c r="N102" s="28"/>
       <c r="O102" s="28"/>
-      <c r="P102" s="15"/>
+      <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
-      <c r="R102" s="63"/>
-      <c r="S102" s="63"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="36"/>
       <c r="T102" s="36"/>
       <c r="U102" s="36"/>
       <c r="V102" s="36"/>
-      <c r="W102" s="63"/>
+      <c r="W102" s="36"/>
       <c r="X102" s="67"/>
       <c r="Y102" s="67"/>
       <c r="Z102" s="42"/>
@@ -5405,7 +5408,7 @@
       <c r="AC102" s="73"/>
     </row>
     <row r="103" spans="1:29">
-      <c r="A103" s="54"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -5420,14 +5423,14 @@
       <c r="M103" s="28"/>
       <c r="N103" s="28"/>
       <c r="O103" s="28"/>
-      <c r="P103" s="15"/>
+      <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
-      <c r="R103" s="63"/>
-      <c r="S103" s="63"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="36"/>
       <c r="T103" s="36"/>
       <c r="U103" s="36"/>
       <c r="V103" s="36"/>
-      <c r="W103" s="63"/>
+      <c r="W103" s="36"/>
       <c r="X103" s="67"/>
       <c r="Y103" s="67"/>
       <c r="Z103" s="42"/>
@@ -5436,7 +5439,7 @@
       <c r="AC103" s="73"/>
     </row>
     <row r="104" spans="1:29">
-      <c r="A104" s="54"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -5451,14 +5454,14 @@
       <c r="M104" s="28"/>
       <c r="N104" s="28"/>
       <c r="O104" s="28"/>
-      <c r="P104" s="15"/>
+      <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
-      <c r="R104" s="63"/>
-      <c r="S104" s="63"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="36"/>
       <c r="T104" s="36"/>
       <c r="U104" s="36"/>
       <c r="V104" s="36"/>
-      <c r="W104" s="63"/>
+      <c r="W104" s="36"/>
       <c r="X104" s="67"/>
       <c r="Y104" s="67"/>
       <c r="Z104" s="42"/>
@@ -5467,7 +5470,7 @@
       <c r="AC104" s="73"/>
     </row>
     <row r="105" spans="1:29">
-      <c r="A105" s="54"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -5482,14 +5485,14 @@
       <c r="M105" s="28"/>
       <c r="N105" s="28"/>
       <c r="O105" s="28"/>
-      <c r="P105" s="15"/>
+      <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
-      <c r="R105" s="63"/>
-      <c r="S105" s="63"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="75"/>
       <c r="T105" s="36"/>
       <c r="U105" s="36"/>
-      <c r="V105" s="36"/>
-      <c r="W105" s="63"/>
+      <c r="V105" s="75"/>
+      <c r="W105" s="36"/>
       <c r="X105" s="67"/>
       <c r="Y105" s="67"/>
       <c r="Z105" s="42"/>
@@ -5498,7 +5501,7 @@
       <c r="AC105" s="73"/>
     </row>
     <row r="106" spans="1:29">
-      <c r="A106" s="54"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -5513,14 +5516,14 @@
       <c r="M106" s="28"/>
       <c r="N106" s="28"/>
       <c r="O106" s="28"/>
-      <c r="P106" s="15"/>
+      <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
-      <c r="R106" s="63"/>
-      <c r="S106" s="63"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="36"/>
       <c r="T106" s="36"/>
       <c r="U106" s="36"/>
       <c r="V106" s="36"/>
-      <c r="W106" s="63"/>
+      <c r="W106" s="36"/>
       <c r="X106" s="67"/>
       <c r="Y106" s="67"/>
       <c r="Z106" s="42"/>
@@ -5529,29 +5532,29 @@
       <c r="AC106" s="73"/>
     </row>
     <row r="107" spans="1:29">
-      <c r="A107" s="54"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
       <c r="J107" s="28"/>
       <c r="K107" s="28"/>
       <c r="L107" s="28"/>
       <c r="M107" s="28"/>
       <c r="N107" s="28"/>
       <c r="O107" s="28"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="63"/>
-      <c r="S107" s="63"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="36"/>
       <c r="T107" s="36"/>
       <c r="U107" s="36"/>
       <c r="V107" s="36"/>
-      <c r="W107" s="63"/>
+      <c r="W107" s="36"/>
       <c r="X107" s="67"/>
       <c r="Y107" s="67"/>
       <c r="Z107" s="42"/>
@@ -5560,29 +5563,29 @@
       <c r="AC107" s="73"/>
     </row>
     <row r="108" spans="1:29">
-      <c r="A108" s="56"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
       <c r="J108" s="28"/>
       <c r="K108" s="28"/>
       <c r="L108" s="28"/>
       <c r="M108" s="28"/>
       <c r="N108" s="28"/>
       <c r="O108" s="28"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="63"/>
-      <c r="S108" s="63"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="42"/>
+      <c r="S108" s="42"/>
       <c r="T108" s="36"/>
       <c r="U108" s="36"/>
       <c r="V108" s="36"/>
-      <c r="W108" s="63"/>
+      <c r="W108" s="36"/>
       <c r="X108" s="67"/>
       <c r="Y108" s="67"/>
       <c r="Z108" s="42"/>
@@ -5591,7 +5594,7 @@
       <c r="AC108" s="73"/>
     </row>
     <row r="109" spans="1:29">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="53" t="s">
         <v>47</v>
       </c>
       <c r="B109" s="6"/>
@@ -6215,7 +6218,7 @@
       <c r="AC128" s="73"/>
     </row>
     <row r="129" spans="1:29">
-      <c r="A129" s="57" t="s">
+      <c r="A129" s="54" t="s">
         <v>49</v>
       </c>
       <c r="B129" s="6"/>
@@ -6248,7 +6251,7 @@
       <c r="AC129" s="73"/>
     </row>
     <row r="130" spans="1:29">
-      <c r="A130" s="57"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -6279,7 +6282,7 @@
       <c r="AC130" s="73"/>
     </row>
     <row r="131" spans="1:29">
-      <c r="A131" s="57"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -6310,7 +6313,7 @@
       <c r="AC131" s="73"/>
     </row>
     <row r="132" spans="1:29">
-      <c r="A132" s="57"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -6341,7 +6344,7 @@
       <c r="AC132" s="73"/>
     </row>
     <row r="133" spans="1:29">
-      <c r="A133" s="57"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -6372,29 +6375,29 @@
       <c r="AC133" s="73"/>
     </row>
     <row r="134" spans="1:29">
-      <c r="A134" s="57"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
       <c r="J134" s="28"/>
       <c r="K134" s="28"/>
       <c r="L134" s="28"/>
       <c r="M134" s="28"/>
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="42"/>
-      <c r="S134" s="42"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="63"/>
+      <c r="S134" s="63"/>
       <c r="T134" s="36"/>
       <c r="U134" s="36"/>
       <c r="V134" s="36"/>
-      <c r="W134" s="42"/>
+      <c r="W134" s="63"/>
       <c r="X134" s="67"/>
       <c r="Y134" s="67"/>
       <c r="Z134" s="42"/>
@@ -6403,29 +6406,29 @@
       <c r="AC134" s="73"/>
     </row>
     <row r="135" spans="1:29">
-      <c r="A135" s="57"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="28"/>
       <c r="F135" s="28"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
       <c r="J135" s="28"/>
       <c r="K135" s="28"/>
       <c r="L135" s="28"/>
       <c r="M135" s="28"/>
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="42"/>
-      <c r="S135" s="42"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="63"/>
+      <c r="S135" s="63"/>
       <c r="T135" s="36"/>
       <c r="U135" s="36"/>
       <c r="V135" s="36"/>
-      <c r="W135" s="42"/>
+      <c r="W135" s="63"/>
       <c r="X135" s="67"/>
       <c r="Y135" s="67"/>
       <c r="Z135" s="42"/>
@@ -6434,29 +6437,29 @@
       <c r="AC135" s="73"/>
     </row>
     <row r="136" spans="1:29">
-      <c r="A136" s="57"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
       <c r="J136" s="28"/>
       <c r="K136" s="28"/>
       <c r="L136" s="28"/>
       <c r="M136" s="28"/>
       <c r="N136" s="28"/>
       <c r="O136" s="28"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="42"/>
-      <c r="S136" s="42"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="63"/>
+      <c r="S136" s="63"/>
       <c r="T136" s="36"/>
       <c r="U136" s="36"/>
       <c r="V136" s="36"/>
-      <c r="W136" s="42"/>
+      <c r="W136" s="63"/>
       <c r="X136" s="67"/>
       <c r="Y136" s="67"/>
       <c r="Z136" s="42"/>
@@ -6465,29 +6468,29 @@
       <c r="AC136" s="73"/>
     </row>
     <row r="137" spans="1:29">
-      <c r="A137" s="57"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="28"/>
       <c r="F137" s="28"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
       <c r="J137" s="28"/>
       <c r="K137" s="28"/>
       <c r="L137" s="28"/>
       <c r="M137" s="28"/>
       <c r="N137" s="28"/>
       <c r="O137" s="28"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="42"/>
-      <c r="S137" s="42"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="63"/>
+      <c r="S137" s="63"/>
       <c r="T137" s="36"/>
       <c r="U137" s="36"/>
       <c r="V137" s="36"/>
-      <c r="W137" s="42"/>
+      <c r="W137" s="63"/>
       <c r="X137" s="67"/>
       <c r="Y137" s="67"/>
       <c r="Z137" s="42"/>
@@ -6496,29 +6499,29 @@
       <c r="AC137" s="73"/>
     </row>
     <row r="138" spans="1:29">
-      <c r="A138" s="57"/>
+      <c r="A138" s="56"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="28"/>
       <c r="F138" s="28"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
       <c r="J138" s="28"/>
       <c r="K138" s="28"/>
       <c r="L138" s="28"/>
       <c r="M138" s="28"/>
       <c r="N138" s="28"/>
       <c r="O138" s="28"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="42"/>
-      <c r="S138" s="42"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="63"/>
+      <c r="S138" s="63"/>
       <c r="T138" s="36"/>
       <c r="U138" s="36"/>
       <c r="V138" s="36"/>
-      <c r="W138" s="42"/>
+      <c r="W138" s="63"/>
       <c r="X138" s="67"/>
       <c r="Y138" s="67"/>
       <c r="Z138" s="42"/>
@@ -6527,7 +6530,7 @@
       <c r="AC138" s="73"/>
     </row>
     <row r="139" spans="1:29">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="57" t="s">
         <v>50</v>
       </c>
       <c r="B139" s="6"/>
@@ -6560,7 +6563,7 @@
       <c r="AC139" s="73"/>
     </row>
     <row r="140" spans="1:29">
-      <c r="A140" s="6"/>
+      <c r="A140" s="57"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -6591,7 +6594,7 @@
       <c r="AC140" s="73"/>
     </row>
     <row r="141" spans="1:29">
-      <c r="A141" s="6"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -6622,7 +6625,7 @@
       <c r="AC141" s="73"/>
     </row>
     <row r="142" spans="1:29">
-      <c r="A142" s="6"/>
+      <c r="A142" s="57"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -6653,7 +6656,7 @@
       <c r="AC142" s="73"/>
     </row>
     <row r="143" spans="1:29">
-      <c r="A143" s="6"/>
+      <c r="A143" s="57"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -6684,29 +6687,29 @@
       <c r="AC143" s="73"/>
     </row>
     <row r="144" spans="1:29">
-      <c r="A144" s="6"/>
+      <c r="A144" s="57"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="28"/>
       <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="28"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
       <c r="J144" s="28"/>
       <c r="K144" s="28"/>
       <c r="L144" s="28"/>
       <c r="M144" s="28"/>
       <c r="N144" s="28"/>
       <c r="O144" s="28"/>
-      <c r="P144" s="15"/>
-      <c r="Q144" s="12"/>
-      <c r="R144" s="63"/>
-      <c r="S144" s="63"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="42"/>
+      <c r="S144" s="42"/>
       <c r="T144" s="36"/>
       <c r="U144" s="36"/>
       <c r="V144" s="36"/>
-      <c r="W144" s="63"/>
+      <c r="W144" s="42"/>
       <c r="X144" s="67"/>
       <c r="Y144" s="67"/>
       <c r="Z144" s="42"/>
@@ -6715,29 +6718,29 @@
       <c r="AC144" s="73"/>
     </row>
     <row r="145" spans="1:29">
-      <c r="A145" s="6"/>
+      <c r="A145" s="57"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="28"/>
       <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
       <c r="J145" s="28"/>
       <c r="K145" s="28"/>
       <c r="L145" s="28"/>
       <c r="M145" s="28"/>
       <c r="N145" s="28"/>
       <c r="O145" s="28"/>
-      <c r="P145" s="15"/>
-      <c r="Q145" s="12"/>
-      <c r="R145" s="63"/>
-      <c r="S145" s="75"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="42"/>
+      <c r="S145" s="42"/>
       <c r="T145" s="36"/>
       <c r="U145" s="36"/>
       <c r="V145" s="36"/>
-      <c r="W145" s="63"/>
+      <c r="W145" s="42"/>
       <c r="X145" s="67"/>
       <c r="Y145" s="67"/>
       <c r="Z145" s="42"/>
@@ -6746,15 +6749,15 @@
       <c r="AC145" s="73"/>
     </row>
     <row r="146" spans="1:29">
-      <c r="A146" s="6"/>
+      <c r="A146" s="57"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="28"/>
       <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
       <c r="J146" s="28"/>
       <c r="K146" s="28"/>
       <c r="L146" s="28"/>
@@ -6777,7 +6780,7 @@
       <c r="AC146" s="73"/>
     </row>
     <row r="147" spans="1:29">
-      <c r="A147" s="6"/>
+      <c r="A147" s="57"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -6808,7 +6811,7 @@
       <c r="AC147" s="73"/>
     </row>
     <row r="148" spans="1:29">
-      <c r="A148" s="6"/>
+      <c r="A148" s="57"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -6839,321 +6842,321 @@
       <c r="AC148" s="73"/>
     </row>
     <row r="149" spans="1:29">
-      <c r="A149" s="57" t="s">
+      <c r="A149" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B149" s="77"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="77"/>
-      <c r="E149" s="78"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="77"/>
-      <c r="H149" s="79"/>
-      <c r="I149" s="79"/>
-      <c r="J149" s="78"/>
-      <c r="K149" s="61"/>
-      <c r="L149" s="61"/>
-      <c r="M149" s="61"/>
-      <c r="N149" s="61"/>
-      <c r="O149" s="61"/>
-      <c r="P149" s="77"/>
-      <c r="Q149" s="77"/>
-      <c r="R149" s="79"/>
-      <c r="S149" s="79"/>
-      <c r="T149" s="80"/>
-      <c r="U149" s="80"/>
-      <c r="V149" s="80"/>
-      <c r="W149" s="79"/>
-      <c r="X149" s="81"/>
-      <c r="Y149" s="81"/>
-      <c r="Z149" s="79"/>
-      <c r="AA149" s="82"/>
-      <c r="AB149" s="82"/>
-      <c r="AC149" s="79"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="28"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="28"/>
+      <c r="L149" s="28"/>
+      <c r="M149" s="28"/>
+      <c r="N149" s="28"/>
+      <c r="O149" s="28"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="63"/>
+      <c r="S149" s="63"/>
+      <c r="T149" s="36"/>
+      <c r="U149" s="36"/>
+      <c r="V149" s="36"/>
+      <c r="W149" s="63"/>
+      <c r="X149" s="67"/>
+      <c r="Y149" s="67"/>
+      <c r="Z149" s="42"/>
+      <c r="AA149" s="73"/>
+      <c r="AB149" s="72"/>
+      <c r="AC149" s="73"/>
     </row>
     <row r="150" spans="1:29">
-      <c r="A150" s="57"/>
-      <c r="B150" s="77"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="77"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="77"/>
-      <c r="H150" s="79"/>
-      <c r="I150" s="79"/>
-      <c r="J150" s="78"/>
-      <c r="K150" s="61"/>
-      <c r="L150" s="61"/>
-      <c r="M150" s="61"/>
-      <c r="N150" s="61"/>
-      <c r="O150" s="61"/>
-      <c r="P150" s="77"/>
-      <c r="Q150" s="77"/>
-      <c r="R150" s="79"/>
-      <c r="S150" s="79"/>
-      <c r="T150" s="80"/>
-      <c r="U150" s="80"/>
-      <c r="V150" s="80"/>
-      <c r="W150" s="79"/>
-      <c r="X150" s="81"/>
-      <c r="Y150" s="81"/>
-      <c r="Z150" s="79"/>
-      <c r="AA150" s="82"/>
-      <c r="AB150" s="82"/>
-      <c r="AC150" s="79"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="28"/>
+      <c r="L150" s="28"/>
+      <c r="M150" s="28"/>
+      <c r="N150" s="28"/>
+      <c r="O150" s="28"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="63"/>
+      <c r="S150" s="63"/>
+      <c r="T150" s="36"/>
+      <c r="U150" s="36"/>
+      <c r="V150" s="36"/>
+      <c r="W150" s="63"/>
+      <c r="X150" s="67"/>
+      <c r="Y150" s="67"/>
+      <c r="Z150" s="42"/>
+      <c r="AA150" s="73"/>
+      <c r="AB150" s="72"/>
+      <c r="AC150" s="73"/>
     </row>
     <row r="151" spans="1:29">
-      <c r="A151" s="57"/>
-      <c r="B151" s="77"/>
-      <c r="C151" s="77"/>
-      <c r="D151" s="77"/>
-      <c r="E151" s="78"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="77"/>
-      <c r="H151" s="79"/>
-      <c r="I151" s="79"/>
-      <c r="J151" s="78"/>
-      <c r="K151" s="61"/>
-      <c r="L151" s="61"/>
-      <c r="M151" s="61"/>
-      <c r="N151" s="61"/>
-      <c r="O151" s="61"/>
-      <c r="P151" s="77"/>
-      <c r="Q151" s="77"/>
-      <c r="R151" s="79"/>
-      <c r="S151" s="79"/>
-      <c r="T151" s="80"/>
-      <c r="U151" s="80"/>
-      <c r="V151" s="80"/>
-      <c r="W151" s="79"/>
-      <c r="X151" s="81"/>
-      <c r="Y151" s="81"/>
-      <c r="Z151" s="79"/>
-      <c r="AA151" s="82"/>
-      <c r="AB151" s="82"/>
-      <c r="AC151" s="79"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="28"/>
+      <c r="M151" s="28"/>
+      <c r="N151" s="28"/>
+      <c r="O151" s="28"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="63"/>
+      <c r="S151" s="63"/>
+      <c r="T151" s="36"/>
+      <c r="U151" s="36"/>
+      <c r="V151" s="36"/>
+      <c r="W151" s="63"/>
+      <c r="X151" s="67"/>
+      <c r="Y151" s="67"/>
+      <c r="Z151" s="42"/>
+      <c r="AA151" s="73"/>
+      <c r="AB151" s="72"/>
+      <c r="AC151" s="73"/>
     </row>
     <row r="152" spans="1:29">
-      <c r="A152" s="57"/>
-      <c r="B152" s="77"/>
-      <c r="C152" s="77"/>
-      <c r="D152" s="77"/>
-      <c r="E152" s="78"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="77"/>
-      <c r="H152" s="79"/>
-      <c r="I152" s="79"/>
-      <c r="J152" s="78"/>
-      <c r="K152" s="61"/>
-      <c r="L152" s="61"/>
-      <c r="M152" s="61"/>
-      <c r="N152" s="61"/>
-      <c r="O152" s="61"/>
-      <c r="P152" s="77"/>
-      <c r="Q152" s="77"/>
-      <c r="R152" s="79"/>
-      <c r="S152" s="79"/>
-      <c r="T152" s="80"/>
-      <c r="U152" s="80"/>
-      <c r="V152" s="80"/>
-      <c r="W152" s="79"/>
-      <c r="X152" s="81"/>
-      <c r="Y152" s="81"/>
-      <c r="Z152" s="79"/>
-      <c r="AA152" s="82"/>
-      <c r="AB152" s="82"/>
-      <c r="AC152" s="79"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="28"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="28"/>
+      <c r="O152" s="28"/>
+      <c r="P152" s="15"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="63"/>
+      <c r="S152" s="63"/>
+      <c r="T152" s="36"/>
+      <c r="U152" s="36"/>
+      <c r="V152" s="36"/>
+      <c r="W152" s="63"/>
+      <c r="X152" s="67"/>
+      <c r="Y152" s="67"/>
+      <c r="Z152" s="42"/>
+      <c r="AA152" s="73"/>
+      <c r="AB152" s="72"/>
+      <c r="AC152" s="73"/>
     </row>
     <row r="153" spans="1:29">
-      <c r="A153" s="57"/>
-      <c r="B153" s="77"/>
-      <c r="C153" s="77"/>
-      <c r="D153" s="77"/>
-      <c r="E153" s="78"/>
-      <c r="F153" s="78"/>
-      <c r="G153" s="77"/>
-      <c r="H153" s="79"/>
-      <c r="I153" s="79"/>
-      <c r="J153" s="78"/>
-      <c r="K153" s="61"/>
-      <c r="L153" s="61"/>
-      <c r="M153" s="61"/>
-      <c r="N153" s="61"/>
-      <c r="O153" s="61"/>
-      <c r="P153" s="77"/>
-      <c r="Q153" s="77"/>
-      <c r="R153" s="79"/>
-      <c r="S153" s="79"/>
-      <c r="T153" s="80"/>
-      <c r="U153" s="80"/>
-      <c r="V153" s="80"/>
-      <c r="W153" s="79"/>
-      <c r="X153" s="81"/>
-      <c r="Y153" s="81"/>
-      <c r="Z153" s="79"/>
-      <c r="AA153" s="82"/>
-      <c r="AB153" s="82"/>
-      <c r="AC153" s="79"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="28"/>
+      <c r="M153" s="28"/>
+      <c r="N153" s="28"/>
+      <c r="O153" s="28"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="63"/>
+      <c r="S153" s="63"/>
+      <c r="T153" s="36"/>
+      <c r="U153" s="36"/>
+      <c r="V153" s="36"/>
+      <c r="W153" s="63"/>
+      <c r="X153" s="67"/>
+      <c r="Y153" s="67"/>
+      <c r="Z153" s="42"/>
+      <c r="AA153" s="73"/>
+      <c r="AB153" s="72"/>
+      <c r="AC153" s="73"/>
     </row>
     <row r="154" spans="1:29">
-      <c r="A154" s="57"/>
-      <c r="B154" s="77"/>
-      <c r="C154" s="77"/>
-      <c r="D154" s="77"/>
-      <c r="E154" s="78"/>
-      <c r="F154" s="78"/>
-      <c r="G154" s="77"/>
-      <c r="H154" s="79"/>
-      <c r="I154" s="79"/>
-      <c r="J154" s="78"/>
-      <c r="K154" s="61"/>
-      <c r="L154" s="61"/>
-      <c r="M154" s="61"/>
-      <c r="N154" s="61"/>
-      <c r="O154" s="61"/>
-      <c r="P154" s="77"/>
-      <c r="Q154" s="77"/>
-      <c r="R154" s="79"/>
-      <c r="S154" s="79"/>
-      <c r="T154" s="80"/>
-      <c r="U154" s="80"/>
-      <c r="V154" s="80"/>
-      <c r="W154" s="79"/>
-      <c r="X154" s="81"/>
-      <c r="Y154" s="81"/>
-      <c r="Z154" s="79"/>
-      <c r="AA154" s="82"/>
-      <c r="AB154" s="82"/>
-      <c r="AC154" s="79"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="28"/>
+      <c r="M154" s="28"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="28"/>
+      <c r="P154" s="15"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="63"/>
+      <c r="S154" s="63"/>
+      <c r="T154" s="36"/>
+      <c r="U154" s="36"/>
+      <c r="V154" s="36"/>
+      <c r="W154" s="63"/>
+      <c r="X154" s="67"/>
+      <c r="Y154" s="67"/>
+      <c r="Z154" s="42"/>
+      <c r="AA154" s="73"/>
+      <c r="AB154" s="72"/>
+      <c r="AC154" s="73"/>
     </row>
     <row r="155" spans="1:29">
-      <c r="A155" s="57"/>
-      <c r="B155" s="77"/>
-      <c r="C155" s="77"/>
-      <c r="D155" s="77"/>
-      <c r="E155" s="78"/>
-      <c r="F155" s="78"/>
-      <c r="G155" s="77"/>
-      <c r="H155" s="79"/>
-      <c r="I155" s="79"/>
-      <c r="J155" s="78"/>
-      <c r="K155" s="61"/>
-      <c r="L155" s="61"/>
-      <c r="M155" s="61"/>
-      <c r="N155" s="61"/>
-      <c r="O155" s="61"/>
-      <c r="P155" s="77"/>
-      <c r="Q155" s="77"/>
-      <c r="R155" s="79"/>
-      <c r="S155" s="79"/>
-      <c r="T155" s="80"/>
-      <c r="U155" s="80"/>
-      <c r="V155" s="80"/>
-      <c r="W155" s="79"/>
-      <c r="X155" s="81"/>
-      <c r="Y155" s="81"/>
-      <c r="Z155" s="79"/>
-      <c r="AA155" s="82"/>
-      <c r="AB155" s="82"/>
-      <c r="AC155" s="79"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="28"/>
+      <c r="L155" s="28"/>
+      <c r="M155" s="28"/>
+      <c r="N155" s="28"/>
+      <c r="O155" s="28"/>
+      <c r="P155" s="15"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="63"/>
+      <c r="S155" s="75"/>
+      <c r="T155" s="36"/>
+      <c r="U155" s="36"/>
+      <c r="V155" s="36"/>
+      <c r="W155" s="63"/>
+      <c r="X155" s="67"/>
+      <c r="Y155" s="67"/>
+      <c r="Z155" s="42"/>
+      <c r="AA155" s="73"/>
+      <c r="AB155" s="72"/>
+      <c r="AC155" s="73"/>
     </row>
     <row r="156" spans="1:29">
-      <c r="A156" s="57"/>
-      <c r="B156" s="77"/>
-      <c r="C156" s="77"/>
-      <c r="D156" s="77"/>
-      <c r="E156" s="78"/>
-      <c r="F156" s="78"/>
-      <c r="G156" s="77"/>
-      <c r="H156" s="79"/>
-      <c r="I156" s="79"/>
-      <c r="J156" s="78"/>
-      <c r="K156" s="61"/>
-      <c r="L156" s="61"/>
-      <c r="M156" s="61"/>
-      <c r="N156" s="61"/>
-      <c r="O156" s="61"/>
-      <c r="P156" s="77"/>
-      <c r="Q156" s="77"/>
-      <c r="R156" s="79"/>
-      <c r="S156" s="79"/>
-      <c r="T156" s="80"/>
-      <c r="U156" s="80"/>
-      <c r="V156" s="80"/>
-      <c r="W156" s="79"/>
-      <c r="X156" s="81"/>
-      <c r="Y156" s="81"/>
-      <c r="Z156" s="79"/>
-      <c r="AA156" s="82"/>
-      <c r="AB156" s="82"/>
-      <c r="AC156" s="79"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="28"/>
+      <c r="L156" s="28"/>
+      <c r="M156" s="28"/>
+      <c r="N156" s="28"/>
+      <c r="O156" s="28"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="42"/>
+      <c r="S156" s="42"/>
+      <c r="T156" s="36"/>
+      <c r="U156" s="36"/>
+      <c r="V156" s="36"/>
+      <c r="W156" s="42"/>
+      <c r="X156" s="67"/>
+      <c r="Y156" s="67"/>
+      <c r="Z156" s="42"/>
+      <c r="AA156" s="73"/>
+      <c r="AB156" s="72"/>
+      <c r="AC156" s="73"/>
     </row>
     <row r="157" spans="1:29">
-      <c r="A157" s="57"/>
-      <c r="B157" s="77"/>
-      <c r="C157" s="77"/>
-      <c r="D157" s="77"/>
-      <c r="E157" s="78"/>
-      <c r="F157" s="78"/>
-      <c r="G157" s="77"/>
-      <c r="H157" s="79"/>
-      <c r="I157" s="79"/>
-      <c r="J157" s="78"/>
-      <c r="K157" s="61"/>
-      <c r="L157" s="61"/>
-      <c r="M157" s="61"/>
-      <c r="N157" s="61"/>
-      <c r="O157" s="61"/>
-      <c r="P157" s="77"/>
-      <c r="Q157" s="77"/>
-      <c r="R157" s="79"/>
-      <c r="S157" s="79"/>
-      <c r="T157" s="80"/>
-      <c r="U157" s="80"/>
-      <c r="V157" s="80"/>
-      <c r="W157" s="79"/>
-      <c r="X157" s="81"/>
-      <c r="Y157" s="81"/>
-      <c r="Z157" s="79"/>
-      <c r="AA157" s="82"/>
-      <c r="AB157" s="82"/>
-      <c r="AC157" s="79"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="28"/>
+      <c r="L157" s="28"/>
+      <c r="M157" s="28"/>
+      <c r="N157" s="28"/>
+      <c r="O157" s="28"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="42"/>
+      <c r="S157" s="42"/>
+      <c r="T157" s="36"/>
+      <c r="U157" s="36"/>
+      <c r="V157" s="36"/>
+      <c r="W157" s="42"/>
+      <c r="X157" s="67"/>
+      <c r="Y157" s="67"/>
+      <c r="Z157" s="42"/>
+      <c r="AA157" s="73"/>
+      <c r="AB157" s="72"/>
+      <c r="AC157" s="73"/>
     </row>
     <row r="158" spans="1:29">
-      <c r="A158" s="55" t="s">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="28"/>
+      <c r="K158" s="28"/>
+      <c r="L158" s="28"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="28"/>
+      <c r="O158" s="28"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="42"/>
+      <c r="S158" s="42"/>
+      <c r="T158" s="36"/>
+      <c r="U158" s="36"/>
+      <c r="V158" s="36"/>
+      <c r="W158" s="42"/>
+      <c r="X158" s="67"/>
+      <c r="Y158" s="67"/>
+      <c r="Z158" s="42"/>
+      <c r="AA158" s="73"/>
+      <c r="AB158" s="72"/>
+      <c r="AC158" s="73"/>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B158" s="77"/>
-      <c r="C158" s="77"/>
-      <c r="D158" s="77"/>
-      <c r="E158" s="78"/>
-      <c r="F158" s="78"/>
-      <c r="G158" s="77"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="79"/>
-      <c r="J158" s="78"/>
-      <c r="K158" s="61"/>
-      <c r="L158" s="61"/>
-      <c r="M158" s="61"/>
-      <c r="N158" s="61"/>
-      <c r="O158" s="61"/>
-      <c r="P158" s="77"/>
-      <c r="Q158" s="77"/>
-      <c r="R158" s="79"/>
-      <c r="S158" s="79"/>
-      <c r="T158" s="80"/>
-      <c r="U158" s="80"/>
-      <c r="V158" s="80"/>
-      <c r="W158" s="79"/>
-      <c r="X158" s="81"/>
-      <c r="Y158" s="81"/>
-      <c r="Z158" s="79"/>
-      <c r="AA158" s="82"/>
-      <c r="AB158" s="82"/>
-      <c r="AC158" s="79"/>
-    </row>
-    <row r="159" spans="1:29">
-      <c r="A159" s="55"/>
       <c r="B159" s="77"/>
       <c r="C159" s="77"/>
       <c r="D159" s="77"/>
@@ -7184,7 +7187,7 @@
       <c r="AC159" s="79"/>
     </row>
     <row r="160" spans="1:29">
-      <c r="A160" s="55"/>
+      <c r="A160" s="57"/>
       <c r="B160" s="77"/>
       <c r="C160" s="77"/>
       <c r="D160" s="77"/>
@@ -7215,7 +7218,7 @@
       <c r="AC160" s="79"/>
     </row>
     <row r="161" spans="1:29">
-      <c r="A161" s="55"/>
+      <c r="A161" s="57"/>
       <c r="B161" s="77"/>
       <c r="C161" s="77"/>
       <c r="D161" s="77"/>
@@ -7246,7 +7249,7 @@
       <c r="AC161" s="79"/>
     </row>
     <row r="162" spans="1:29">
-      <c r="A162" s="55"/>
+      <c r="A162" s="57"/>
       <c r="B162" s="77"/>
       <c r="C162" s="77"/>
       <c r="D162" s="77"/>
@@ -7277,7 +7280,7 @@
       <c r="AC162" s="79"/>
     </row>
     <row r="163" spans="1:29">
-      <c r="A163" s="55"/>
+      <c r="A163" s="57"/>
       <c r="B163" s="77"/>
       <c r="C163" s="77"/>
       <c r="D163" s="77"/>
@@ -7308,7 +7311,7 @@
       <c r="AC163" s="79"/>
     </row>
     <row r="164" spans="1:29">
-      <c r="A164" s="55"/>
+      <c r="A164" s="57"/>
       <c r="B164" s="77"/>
       <c r="C164" s="77"/>
       <c r="D164" s="77"/>
@@ -7339,7 +7342,7 @@
       <c r="AC164" s="79"/>
     </row>
     <row r="165" spans="1:29">
-      <c r="A165" s="55"/>
+      <c r="A165" s="57"/>
       <c r="B165" s="77"/>
       <c r="C165" s="77"/>
       <c r="D165" s="77"/>
@@ -7370,7 +7373,7 @@
       <c r="AC165" s="79"/>
     </row>
     <row r="166" spans="1:29">
-      <c r="A166" s="55"/>
+      <c r="A166" s="57"/>
       <c r="B166" s="77"/>
       <c r="C166" s="77"/>
       <c r="D166" s="77"/>
@@ -7401,7 +7404,7 @@
       <c r="AC166" s="79"/>
     </row>
     <row r="167" spans="1:29">
-      <c r="A167" s="55"/>
+      <c r="A167" s="57"/>
       <c r="B167" s="77"/>
       <c r="C167" s="77"/>
       <c r="D167" s="77"/>
@@ -7432,7 +7435,9 @@
       <c r="AC167" s="79"/>
     </row>
     <row r="168" spans="1:29">
-      <c r="A168" s="55"/>
+      <c r="A168" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="B168" s="77"/>
       <c r="C168" s="77"/>
       <c r="D168" s="77"/>
@@ -7494,9 +7499,7 @@
       <c r="AC169" s="79"/>
     </row>
     <row r="170" spans="1:29">
-      <c r="A170" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A170" s="55"/>
       <c r="B170" s="77"/>
       <c r="C170" s="77"/>
       <c r="D170" s="77"/>
@@ -7527,7 +7530,7 @@
       <c r="AC170" s="79"/>
     </row>
     <row r="171" spans="1:29">
-      <c r="A171" s="6"/>
+      <c r="A171" s="55"/>
       <c r="B171" s="77"/>
       <c r="C171" s="77"/>
       <c r="D171" s="77"/>
@@ -7558,7 +7561,7 @@
       <c r="AC171" s="79"/>
     </row>
     <row r="172" spans="1:29">
-      <c r="A172" s="6"/>
+      <c r="A172" s="55"/>
       <c r="B172" s="77"/>
       <c r="C172" s="77"/>
       <c r="D172" s="77"/>
@@ -7589,7 +7592,7 @@
       <c r="AC172" s="79"/>
     </row>
     <row r="173" spans="1:29">
-      <c r="A173" s="6"/>
+      <c r="A173" s="55"/>
       <c r="B173" s="77"/>
       <c r="C173" s="77"/>
       <c r="D173" s="77"/>
@@ -7620,7 +7623,7 @@
       <c r="AC173" s="79"/>
     </row>
     <row r="174" spans="1:29">
-      <c r="A174" s="6"/>
+      <c r="A174" s="55"/>
       <c r="B174" s="77"/>
       <c r="C174" s="77"/>
       <c r="D174" s="77"/>
@@ -7651,7 +7654,7 @@
       <c r="AC174" s="79"/>
     </row>
     <row r="175" spans="1:29">
-      <c r="A175" s="6"/>
+      <c r="A175" s="55"/>
       <c r="B175" s="77"/>
       <c r="C175" s="77"/>
       <c r="D175" s="77"/>
@@ -7682,7 +7685,7 @@
       <c r="AC175" s="79"/>
     </row>
     <row r="176" spans="1:29">
-      <c r="A176" s="6"/>
+      <c r="A176" s="55"/>
       <c r="B176" s="77"/>
       <c r="C176" s="77"/>
       <c r="D176" s="77"/>
@@ -7713,7 +7716,7 @@
       <c r="AC176" s="79"/>
     </row>
     <row r="177" spans="1:29">
-      <c r="A177" s="6"/>
+      <c r="A177" s="55"/>
       <c r="B177" s="77"/>
       <c r="C177" s="77"/>
       <c r="D177" s="77"/>
@@ -7744,7 +7747,7 @@
       <c r="AC177" s="79"/>
     </row>
     <row r="178" spans="1:29">
-      <c r="A178" s="6"/>
+      <c r="A178" s="55"/>
       <c r="B178" s="77"/>
       <c r="C178" s="77"/>
       <c r="D178" s="77"/>
@@ -7775,7 +7778,7 @@
       <c r="AC178" s="79"/>
     </row>
     <row r="179" spans="1:29">
-      <c r="A179" s="6"/>
+      <c r="A179" s="55"/>
       <c r="B179" s="77"/>
       <c r="C179" s="77"/>
       <c r="D179" s="77"/>
@@ -7806,7 +7809,9 @@
       <c r="AC179" s="79"/>
     </row>
     <row r="180" spans="1:29">
-      <c r="A180" s="6"/>
+      <c r="A180" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="B180" s="77"/>
       <c r="C180" s="77"/>
       <c r="D180" s="77"/>
@@ -7837,9 +7842,7 @@
       <c r="AC180" s="79"/>
     </row>
     <row r="181" spans="1:29">
-      <c r="A181" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A181" s="6"/>
       <c r="B181" s="77"/>
       <c r="C181" s="77"/>
       <c r="D181" s="77"/>
@@ -8461,7 +8464,7 @@
       <c r="AC200" s="79"/>
     </row>
     <row r="201" spans="1:29">
-      <c r="A201" s="57" t="s">
+      <c r="A201" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B201" s="77"/>
@@ -8494,7 +8497,7 @@
       <c r="AC201" s="79"/>
     </row>
     <row r="202" spans="1:29">
-      <c r="A202" s="57"/>
+      <c r="A202" s="6"/>
       <c r="B202" s="77"/>
       <c r="C202" s="77"/>
       <c r="D202" s="77"/>
@@ -8525,7 +8528,7 @@
       <c r="AC202" s="79"/>
     </row>
     <row r="203" spans="1:29">
-      <c r="A203" s="57"/>
+      <c r="A203" s="6"/>
       <c r="B203" s="77"/>
       <c r="C203" s="77"/>
       <c r="D203" s="77"/>
@@ -8556,7 +8559,7 @@
       <c r="AC203" s="79"/>
     </row>
     <row r="204" spans="1:29">
-      <c r="A204" s="57"/>
+      <c r="A204" s="6"/>
       <c r="B204" s="77"/>
       <c r="C204" s="77"/>
       <c r="D204" s="77"/>
@@ -8587,7 +8590,7 @@
       <c r="AC204" s="79"/>
     </row>
     <row r="205" spans="1:29">
-      <c r="A205" s="57"/>
+      <c r="A205" s="6"/>
       <c r="B205" s="77"/>
       <c r="C205" s="77"/>
       <c r="D205" s="77"/>
@@ -8618,7 +8621,7 @@
       <c r="AC205" s="79"/>
     </row>
     <row r="206" spans="1:29">
-      <c r="A206" s="57"/>
+      <c r="A206" s="6"/>
       <c r="B206" s="77"/>
       <c r="C206" s="77"/>
       <c r="D206" s="77"/>
@@ -8649,7 +8652,7 @@
       <c r="AC206" s="79"/>
     </row>
     <row r="207" spans="1:29">
-      <c r="A207" s="57"/>
+      <c r="A207" s="6"/>
       <c r="B207" s="77"/>
       <c r="C207" s="77"/>
       <c r="D207" s="77"/>
@@ -8680,7 +8683,7 @@
       <c r="AC207" s="79"/>
     </row>
     <row r="208" spans="1:29">
-      <c r="A208" s="57"/>
+      <c r="A208" s="6"/>
       <c r="B208" s="77"/>
       <c r="C208" s="77"/>
       <c r="D208" s="77"/>
@@ -8711,7 +8714,7 @@
       <c r="AC208" s="79"/>
     </row>
     <row r="209" spans="1:29">
-      <c r="A209" s="57"/>
+      <c r="A209" s="6"/>
       <c r="B209" s="77"/>
       <c r="C209" s="77"/>
       <c r="D209" s="77"/>
@@ -8742,7 +8745,7 @@
       <c r="AC209" s="79"/>
     </row>
     <row r="210" spans="1:29">
-      <c r="A210" s="57"/>
+      <c r="A210" s="6"/>
       <c r="B210" s="77"/>
       <c r="C210" s="77"/>
       <c r="D210" s="77"/>
@@ -8773,7 +8776,9 @@
       <c r="AC210" s="79"/>
     </row>
     <row r="211" spans="1:29">
-      <c r="A211" s="57"/>
+      <c r="A211" s="57" t="s">
+        <v>57</v>
+      </c>
       <c r="B211" s="77"/>
       <c r="C211" s="77"/>
       <c r="D211" s="77"/>
@@ -8896,8 +8901,318 @@
       <c r="AB214" s="82"/>
       <c r="AC214" s="79"/>
     </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="57"/>
+      <c r="B215" s="77"/>
+      <c r="C215" s="77"/>
+      <c r="D215" s="77"/>
+      <c r="E215" s="78"/>
+      <c r="F215" s="78"/>
+      <c r="G215" s="77"/>
+      <c r="H215" s="79"/>
+      <c r="I215" s="79"/>
+      <c r="J215" s="78"/>
+      <c r="K215" s="61"/>
+      <c r="L215" s="61"/>
+      <c r="M215" s="61"/>
+      <c r="N215" s="61"/>
+      <c r="O215" s="61"/>
+      <c r="P215" s="77"/>
+      <c r="Q215" s="77"/>
+      <c r="R215" s="79"/>
+      <c r="S215" s="79"/>
+      <c r="T215" s="80"/>
+      <c r="U215" s="80"/>
+      <c r="V215" s="80"/>
+      <c r="W215" s="79"/>
+      <c r="X215" s="81"/>
+      <c r="Y215" s="81"/>
+      <c r="Z215" s="79"/>
+      <c r="AA215" s="82"/>
+      <c r="AB215" s="82"/>
+      <c r="AC215" s="79"/>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="57"/>
+      <c r="B216" s="77"/>
+      <c r="C216" s="77"/>
+      <c r="D216" s="77"/>
+      <c r="E216" s="78"/>
+      <c r="F216" s="78"/>
+      <c r="G216" s="77"/>
+      <c r="H216" s="79"/>
+      <c r="I216" s="79"/>
+      <c r="J216" s="78"/>
+      <c r="K216" s="61"/>
+      <c r="L216" s="61"/>
+      <c r="M216" s="61"/>
+      <c r="N216" s="61"/>
+      <c r="O216" s="61"/>
+      <c r="P216" s="77"/>
+      <c r="Q216" s="77"/>
+      <c r="R216" s="79"/>
+      <c r="S216" s="79"/>
+      <c r="T216" s="80"/>
+      <c r="U216" s="80"/>
+      <c r="V216" s="80"/>
+      <c r="W216" s="79"/>
+      <c r="X216" s="81"/>
+      <c r="Y216" s="81"/>
+      <c r="Z216" s="79"/>
+      <c r="AA216" s="82"/>
+      <c r="AB216" s="82"/>
+      <c r="AC216" s="79"/>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="57"/>
+      <c r="B217" s="77"/>
+      <c r="C217" s="77"/>
+      <c r="D217" s="77"/>
+      <c r="E217" s="78"/>
+      <c r="F217" s="78"/>
+      <c r="G217" s="77"/>
+      <c r="H217" s="79"/>
+      <c r="I217" s="79"/>
+      <c r="J217" s="78"/>
+      <c r="K217" s="61"/>
+      <c r="L217" s="61"/>
+      <c r="M217" s="61"/>
+      <c r="N217" s="61"/>
+      <c r="O217" s="61"/>
+      <c r="P217" s="77"/>
+      <c r="Q217" s="77"/>
+      <c r="R217" s="79"/>
+      <c r="S217" s="79"/>
+      <c r="T217" s="80"/>
+      <c r="U217" s="80"/>
+      <c r="V217" s="80"/>
+      <c r="W217" s="79"/>
+      <c r="X217" s="81"/>
+      <c r="Y217" s="81"/>
+      <c r="Z217" s="79"/>
+      <c r="AA217" s="82"/>
+      <c r="AB217" s="82"/>
+      <c r="AC217" s="79"/>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="57"/>
+      <c r="B218" s="77"/>
+      <c r="C218" s="77"/>
+      <c r="D218" s="77"/>
+      <c r="E218" s="78"/>
+      <c r="F218" s="78"/>
+      <c r="G218" s="77"/>
+      <c r="H218" s="79"/>
+      <c r="I218" s="79"/>
+      <c r="J218" s="78"/>
+      <c r="K218" s="61"/>
+      <c r="L218" s="61"/>
+      <c r="M218" s="61"/>
+      <c r="N218" s="61"/>
+      <c r="O218" s="61"/>
+      <c r="P218" s="77"/>
+      <c r="Q218" s="77"/>
+      <c r="R218" s="79"/>
+      <c r="S218" s="79"/>
+      <c r="T218" s="80"/>
+      <c r="U218" s="80"/>
+      <c r="V218" s="80"/>
+      <c r="W218" s="79"/>
+      <c r="X218" s="81"/>
+      <c r="Y218" s="81"/>
+      <c r="Z218" s="79"/>
+      <c r="AA218" s="82"/>
+      <c r="AB218" s="82"/>
+      <c r="AC218" s="79"/>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="57"/>
+      <c r="B219" s="77"/>
+      <c r="C219" s="77"/>
+      <c r="D219" s="77"/>
+      <c r="E219" s="78"/>
+      <c r="F219" s="78"/>
+      <c r="G219" s="77"/>
+      <c r="H219" s="79"/>
+      <c r="I219" s="79"/>
+      <c r="J219" s="78"/>
+      <c r="K219" s="61"/>
+      <c r="L219" s="61"/>
+      <c r="M219" s="61"/>
+      <c r="N219" s="61"/>
+      <c r="O219" s="61"/>
+      <c r="P219" s="77"/>
+      <c r="Q219" s="77"/>
+      <c r="R219" s="79"/>
+      <c r="S219" s="79"/>
+      <c r="T219" s="80"/>
+      <c r="U219" s="80"/>
+      <c r="V219" s="80"/>
+      <c r="W219" s="79"/>
+      <c r="X219" s="81"/>
+      <c r="Y219" s="81"/>
+      <c r="Z219" s="79"/>
+      <c r="AA219" s="82"/>
+      <c r="AB219" s="82"/>
+      <c r="AC219" s="79"/>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="57"/>
+      <c r="B220" s="77"/>
+      <c r="C220" s="77"/>
+      <c r="D220" s="77"/>
+      <c r="E220" s="78"/>
+      <c r="F220" s="78"/>
+      <c r="G220" s="77"/>
+      <c r="H220" s="79"/>
+      <c r="I220" s="79"/>
+      <c r="J220" s="78"/>
+      <c r="K220" s="61"/>
+      <c r="L220" s="61"/>
+      <c r="M220" s="61"/>
+      <c r="N220" s="61"/>
+      <c r="O220" s="61"/>
+      <c r="P220" s="77"/>
+      <c r="Q220" s="77"/>
+      <c r="R220" s="79"/>
+      <c r="S220" s="79"/>
+      <c r="T220" s="80"/>
+      <c r="U220" s="80"/>
+      <c r="V220" s="80"/>
+      <c r="W220" s="79"/>
+      <c r="X220" s="81"/>
+      <c r="Y220" s="81"/>
+      <c r="Z220" s="79"/>
+      <c r="AA220" s="82"/>
+      <c r="AB220" s="82"/>
+      <c r="AC220" s="79"/>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="57"/>
+      <c r="B221" s="77"/>
+      <c r="C221" s="77"/>
+      <c r="D221" s="77"/>
+      <c r="E221" s="78"/>
+      <c r="F221" s="78"/>
+      <c r="G221" s="77"/>
+      <c r="H221" s="79"/>
+      <c r="I221" s="79"/>
+      <c r="J221" s="78"/>
+      <c r="K221" s="61"/>
+      <c r="L221" s="61"/>
+      <c r="M221" s="61"/>
+      <c r="N221" s="61"/>
+      <c r="O221" s="61"/>
+      <c r="P221" s="77"/>
+      <c r="Q221" s="77"/>
+      <c r="R221" s="79"/>
+      <c r="S221" s="79"/>
+      <c r="T221" s="80"/>
+      <c r="U221" s="80"/>
+      <c r="V221" s="80"/>
+      <c r="W221" s="79"/>
+      <c r="X221" s="81"/>
+      <c r="Y221" s="81"/>
+      <c r="Z221" s="79"/>
+      <c r="AA221" s="82"/>
+      <c r="AB221" s="82"/>
+      <c r="AC221" s="79"/>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="57"/>
+      <c r="B222" s="77"/>
+      <c r="C222" s="77"/>
+      <c r="D222" s="77"/>
+      <c r="E222" s="78"/>
+      <c r="F222" s="78"/>
+      <c r="G222" s="77"/>
+      <c r="H222" s="79"/>
+      <c r="I222" s="79"/>
+      <c r="J222" s="78"/>
+      <c r="K222" s="61"/>
+      <c r="L222" s="61"/>
+      <c r="M222" s="61"/>
+      <c r="N222" s="61"/>
+      <c r="O222" s="61"/>
+      <c r="P222" s="77"/>
+      <c r="Q222" s="77"/>
+      <c r="R222" s="79"/>
+      <c r="S222" s="79"/>
+      <c r="T222" s="80"/>
+      <c r="U222" s="80"/>
+      <c r="V222" s="80"/>
+      <c r="W222" s="79"/>
+      <c r="X222" s="81"/>
+      <c r="Y222" s="81"/>
+      <c r="Z222" s="79"/>
+      <c r="AA222" s="82"/>
+      <c r="AB222" s="82"/>
+      <c r="AC222" s="79"/>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="57"/>
+      <c r="B223" s="77"/>
+      <c r="C223" s="77"/>
+      <c r="D223" s="77"/>
+      <c r="E223" s="78"/>
+      <c r="F223" s="78"/>
+      <c r="G223" s="77"/>
+      <c r="H223" s="79"/>
+      <c r="I223" s="79"/>
+      <c r="J223" s="78"/>
+      <c r="K223" s="61"/>
+      <c r="L223" s="61"/>
+      <c r="M223" s="61"/>
+      <c r="N223" s="61"/>
+      <c r="O223" s="61"/>
+      <c r="P223" s="77"/>
+      <c r="Q223" s="77"/>
+      <c r="R223" s="79"/>
+      <c r="S223" s="79"/>
+      <c r="T223" s="80"/>
+      <c r="U223" s="80"/>
+      <c r="V223" s="80"/>
+      <c r="W223" s="79"/>
+      <c r="X223" s="81"/>
+      <c r="Y223" s="81"/>
+      <c r="Z223" s="79"/>
+      <c r="AA223" s="82"/>
+      <c r="AB223" s="82"/>
+      <c r="AC223" s="79"/>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="57"/>
+      <c r="B224" s="77"/>
+      <c r="C224" s="77"/>
+      <c r="D224" s="77"/>
+      <c r="E224" s="78"/>
+      <c r="F224" s="78"/>
+      <c r="G224" s="77"/>
+      <c r="H224" s="79"/>
+      <c r="I224" s="79"/>
+      <c r="J224" s="78"/>
+      <c r="K224" s="61"/>
+      <c r="L224" s="61"/>
+      <c r="M224" s="61"/>
+      <c r="N224" s="61"/>
+      <c r="O224" s="61"/>
+      <c r="P224" s="77"/>
+      <c r="Q224" s="77"/>
+      <c r="R224" s="79"/>
+      <c r="S224" s="79"/>
+      <c r="T224" s="80"/>
+      <c r="U224" s="80"/>
+      <c r="V224" s="80"/>
+      <c r="W224" s="79"/>
+      <c r="X224" s="81"/>
+      <c r="Y224" s="81"/>
+      <c r="Z224" s="79"/>
+      <c r="AA224" s="82"/>
+      <c r="AB224" s="82"/>
+      <c r="AC224" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A29"/>
     <mergeCell ref="A30:A43"/>
@@ -8911,30 +9226,31 @@
     <mergeCell ref="A119:A128"/>
     <mergeCell ref="A129:A138"/>
     <mergeCell ref="A139:A148"/>
-    <mergeCell ref="A149:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A180"/>
-    <mergeCell ref="A181:A190"/>
+    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="A159:A167"/>
+    <mergeCell ref="A168:A179"/>
+    <mergeCell ref="A180:A190"/>
     <mergeCell ref="A191:A200"/>
-    <mergeCell ref="A201:A214"/>
+    <mergeCell ref="A201:A210"/>
+    <mergeCell ref="A211:A224"/>
     <mergeCell ref="C2:C15"/>
     <mergeCell ref="C16:C29"/>
     <mergeCell ref="C30:C43"/>
     <mergeCell ref="C58:C68"/>
-    <mergeCell ref="C89:C98"/>
-    <mergeCell ref="C129:C138"/>
+    <mergeCell ref="C99:C108"/>
     <mergeCell ref="C139:C148"/>
+    <mergeCell ref="C149:C158"/>
     <mergeCell ref="D2:D15"/>
     <mergeCell ref="D16:D29"/>
     <mergeCell ref="D30:D43"/>
     <mergeCell ref="D58:D68"/>
-    <mergeCell ref="D89:D98"/>
-    <mergeCell ref="D129:D138"/>
+    <mergeCell ref="D99:D108"/>
     <mergeCell ref="D139:D148"/>
+    <mergeCell ref="D149:D158"/>
     <mergeCell ref="Z2:Z15"/>
     <mergeCell ref="AA2:AA15"/>
-    <mergeCell ref="AB2:AB148"/>
-    <mergeCell ref="AC2:AC148"/>
+    <mergeCell ref="AB2:AB158"/>
+    <mergeCell ref="AC2:AC158"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8989,28 +9305,28 @@
         <v>11</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
@@ -9023,7 +9339,7 @@
       <c r="S1" s="32"/>
       <c r="T1" s="32"/>
       <c r="U1" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
@@ -9049,81 +9365,81 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" s="42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB2" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC2" s="42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD2" s="42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE2" s="42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF2" s="42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG2" s="42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="25" customFormat="1" spans="1:33">
       <c r="A3" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1">
         <v>2023</v>
@@ -10240,46 +10556,46 @@
         <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -10295,7 +10611,7 @@
       <c r="AB1" s="16"/>
       <c r="AC1" s="16"/>
       <c r="AD1" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE1" s="16"/>
       <c r="AF1" s="16"/>
@@ -10322,75 +10638,75 @@
       <c r="N2" s="14"/>
       <c r="O2" s="6"/>
       <c r="P2" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE2" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ2" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK2" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1">
         <v>2023</v>
@@ -11822,13 +12138,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/行业/食品饮料/软饮料/软饮料.xlsx
+++ b/行业/食品饮料/软饮料/软饮料.xlsx
@@ -2398,11 +2398,11 @@
   <dimension ref="A1:AW242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Y58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA59" sqref="AA59"/>
+      <selection pane="bottomRight" activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/行业/食品饮料/软饮料/软饮料.xlsx
+++ b/行业/食品饮料/软饮料/软饮料.xlsx
@@ -2389,11 +2389,11 @@
   <dimension ref="A1:AW242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF11" sqref="AF11"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2662,7 +2662,10 @@
         <f>利润表!C3/资产表!C3</f>
         <v>0.245832387850084</v>
       </c>
-      <c r="J3" s="60"/>
+      <c r="J3" s="60">
+        <f>AK3/利润表!D3</f>
+        <v>0.291609969161104</v>
+      </c>
       <c r="K3" s="60">
         <f>利润表!C3/利润表!D3</f>
         <v>0.283109556162563</v>
@@ -2782,7 +2785,10 @@
         <f>利润表!C4/资产表!C4</f>
         <v>0.21641279861508</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="60">
+        <f>AK4/利润表!D4</f>
+        <v>0.231337427115772</v>
+      </c>
       <c r="K4" s="60">
         <f>利润表!C4/利润表!D4</f>
         <v>0.255579355776662</v>
@@ -2902,7 +2908,10 @@
         <f>利润表!C5/资产表!C5</f>
         <v>0.217709542190052</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="60">
+        <f>AK5/利润表!D5</f>
+        <v>0.300107292444749</v>
+      </c>
       <c r="K5" s="60">
         <f>利润表!C5/利润表!D5</f>
         <v>0.241167028764356</v>
@@ -3022,7 +3031,10 @@
         <f>利润表!C6/资产表!C6</f>
         <v>0.204081438510667</v>
       </c>
-      <c r="J6" s="60"/>
+      <c r="J6" s="60">
+        <f>AK6/利润表!D6</f>
+        <v>0.268821574506813</v>
+      </c>
       <c r="K6" s="60">
         <f>利润表!C6/利润表!D6</f>
         <v>0.230683983339465</v>
@@ -3139,7 +3151,10 @@
         <f>利润表!C7/资产表!C7</f>
         <v>0.27838350648283</v>
       </c>
-      <c r="J7" s="60"/>
+      <c r="J7" s="60">
+        <f>AK7/利润表!D7</f>
+        <v>0.173130756489696</v>
+      </c>
       <c r="K7" s="60">
         <f>利润表!C7/利润表!D7</f>
         <v>0.206246015732624</v>
@@ -3234,7 +3249,10 @@
         <f>利润表!C8/资产表!C8</f>
         <v>0.172396770634537</v>
       </c>
-      <c r="J8" s="60"/>
+      <c r="J8" s="60">
+        <f>AK8/利润表!D8</f>
+        <v>0.0575417538764872</v>
+      </c>
       <c r="K8" s="60">
         <f>利润表!C8/利润表!D8</f>
         <v>0.176395802793107</v>
@@ -3329,7 +3347,10 @@
         <f>利润表!C9/资产表!C9</f>
         <v>0.203695596709851</v>
       </c>
-      <c r="J9" s="60"/>
+      <c r="J9" s="60">
+        <f>AK9/利润表!D9</f>
+        <v>0.132938228301363</v>
+      </c>
       <c r="K9" s="60">
         <f>利润表!C9/利润表!D9</f>
         <v>0.193579988215798</v>
@@ -17622,7 +17643,7 @@
   <dimension ref="A1:Y245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
